--- a/excercises/excercises/01.Interpolation.xlsx
+++ b/excercises/excercises/01.Interpolation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16557BCB-901C-43FA-BB92-9DE7F9DCAD22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E7138B-21C2-4D2B-BF57-DE77ADF78A22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3465,16 +3465,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.272727272727273</c:v>
+                  <c:v>16.81818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.75</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3489,16 +3489,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99999999999999822</c:v>
+                  <c:v>4.9999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -8623,7 +8623,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2469732-A940-4902-8298-8E03FDE72982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8646,13 +8646,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>609599</xdr:colOff>
+          <xdr:colOff>609600</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>180974</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8664,7 +8664,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0252D53A-9366-4EBF-A82B-3A7BBF0CEF48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8717,7 +8717,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BEE191-F1F5-447C-8BAD-14855F59DA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8755,7 +8755,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33CD2F8-FD70-4CFF-87A2-D16004DD2BC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9066,7 +9066,7 @@
   <dimension ref="A1:AH230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9481,7 +9481,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="7" t="str">
         <f>"Поиск решения f(x) = " &amp;f_to_solve_</f>
-        <v>Поиск решения f(x) = 1</v>
+        <v>Поиск решения f(x) = 5</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -9607,7 +9607,7 @@
         <v>4</v>
       </c>
       <c r="R21" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -9744,16 +9744,16 @@
       </c>
       <c r="R24" s="13">
         <f t="array" ref="R24:V24">[1]!crv_solve(x_,fx_,f_to_solve_)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S24" s="13">
-        <v>18.272727272727273</v>
+        <v>16.81818181818182</v>
       </c>
       <c r="T24" s="13">
-        <v>22.75</v>
-      </c>
-      <c r="U24" s="13" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="U24" s="13">
+        <v>30</v>
       </c>
       <c r="V24" s="13" t="e">
         <v>#N/A</v>
@@ -9814,19 +9814,19 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="13">
         <f>[1]!crv_interpolation(x_,fx_,R24,тип_интерполяции_)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S25" s="13">
         <f>[1]!crv_interpolation(x_,fx_,S24,тип_интерполяции_)</f>
-        <v>0.99999999999999822</v>
+        <v>4.9999999999999947</v>
       </c>
       <c r="T25" s="13">
         <f>[1]!crv_interpolation(x_,fx_,T24,тип_интерполяции_)</f>
-        <v>1</v>
-      </c>
-      <c r="U25" s="13" t="str">
+        <v>5</v>
+      </c>
+      <c r="U25" s="13">
         <f>[1]!crv_interpolation(x_,fx_,U24,тип_интерполяции_)</f>
-        <v>error</v>
+        <v>5</v>
       </c>
       <c r="V25" s="13" t="str">
         <f>[1]!crv_interpolation(x_,fx_,V24,тип_интерполяции_)</f>
@@ -15123,7 +15123,7 @@
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="16">
-        <f t="shared" ref="B215:B230" si="4">B214+($B$15-$B$7)/200</f>
+        <f t="shared" ref="B215:B221" si="4">B214+($B$15-$B$7)/200</f>
         <v>29.129999999999928</v>
       </c>
       <c r="C215" s="16">

--- a/excercises/excercises/01.Interpolation.xlsx
+++ b/excercises/excercises/01.Interpolation.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E7138B-21C2-4D2B-BF57-DE77ADF78A22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CCF2D2-07F4-4359-B22B-43B182CEC62C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="interpolation" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="f_to_solve_">Лист1!$R$21</definedName>
-    <definedName name="fx_">Лист1!$C$7:$C$15</definedName>
-    <definedName name="gx2_">Лист1!$F$7:$F$15</definedName>
-    <definedName name="x_">Лист1!$B$7:$B$15</definedName>
-    <definedName name="x2_">Лист1!$E$7:$E$15</definedName>
-    <definedName name="тип_интерполяции_">Лист1!$D$19</definedName>
+    <definedName name="f_to_solve_">interpolation!$R$21</definedName>
+    <definedName name="fx_">interpolation!$C$7:$C$15</definedName>
+    <definedName name="gx2_">interpolation!$F$7:$F$15</definedName>
+    <definedName name="x_">interpolation!$B$7:$B$15</definedName>
+    <definedName name="x2_">interpolation!$E$7:$E$15</definedName>
+    <definedName name="тип_интерполяции_">interpolation!$D$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -367,7 +367,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$6</c:f>
+              <c:f>interpolation!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -400,7 +400,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$7:$B$15</c:f>
+              <c:f>interpolation!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -436,7 +436,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$7:$C$15</c:f>
+              <c:f>interpolation!$C$7:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -497,7 +497,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$21:$B$221</c:f>
+              <c:f>interpolation!$B$21:$B$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -1109,7 +1109,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$21:$C$221</c:f>
+              <c:f>interpolation!$C$21:$C$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -2071,7 +2071,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$6</c:f>
+              <c:f>interpolation!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2104,7 +2104,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$7:$B$15</c:f>
+              <c:f>interpolation!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2140,7 +2140,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$7:$C$15</c:f>
+              <c:f>interpolation!$C$7:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2201,7 +2201,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$21:$B$221</c:f>
+              <c:f>interpolation!$B$21:$B$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -2813,7 +2813,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$21:$C$221</c:f>
+              <c:f>interpolation!$C$21:$C$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -3460,7 +3460,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$R$24:$V$24</c:f>
+              <c:f>interpolation!$R$24:$V$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3484,7 +3484,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$R$25:$V$25</c:f>
+              <c:f>interpolation!$R$25:$V$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3861,7 +3861,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$6</c:f>
+              <c:f>interpolation!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3894,7 +3894,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$7:$B$15</c:f>
+              <c:f>interpolation!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3930,7 +3930,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$7:$C$15</c:f>
+              <c:f>interpolation!$C$7:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3991,7 +3991,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$21:$B$221</c:f>
+              <c:f>interpolation!$B$21:$B$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -4603,7 +4603,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$21:$C$221</c:f>
+              <c:f>interpolation!$C$21:$C$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -5250,7 +5250,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$E$7:$E$15</c:f>
+              <c:f>interpolation!$E$7:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5286,7 +5286,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$F$7:$F$15</c:f>
+              <c:f>interpolation!$F$7:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5349,7 +5349,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$21:$B$221</c:f>
+              <c:f>interpolation!$B$21:$B$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -5961,7 +5961,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$21:$D$221</c:f>
+              <c:f>interpolation!$D$21:$D$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
@@ -6608,7 +6608,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AB$24:$AG$24</c:f>
+              <c:f>interpolation!$AB$24:$AG$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6635,7 +6635,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AB$25:$AG$25</c:f>
+              <c:f>interpolation!$AB$25:$AG$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9066,7 +9066,7 @@
   <dimension ref="A1:AH230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
